--- a/labdata_valuesets/labtest_valueset.xlsx
+++ b/labdata_valuesets/labtest_valueset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minakim/git/SALT_C/labdata_valuesets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECF977D-B1FC-1744-9C64-91D17A97BE0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78920173-4C00-BC4A-A103-77D7A6C80B6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5E32107F-04F3-0C41-87C7-C308F24587AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5E32107F-04F3-0C41-87C7-C308F24587AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Categorical" sheetId="4" r:id="rId1"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Updated: 10/28/2018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HIV 1 Ab [Presence] in Serum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -610,6 +606,10 @@
   </si>
   <si>
     <t>Treponema pallidum IgM Ab [Presence] in Serum by Immunofluorescence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated: 10/29/2018</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1011,91 +1011,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1418,7 +1418,7 @@
   <dimension ref="B2:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1431,24 +1431,24 @@
   <sheetData>
     <row r="2" spans="2:6" ht="19" thickBot="1">
       <c r="F2" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="33"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="2:6" ht="39" thickBot="1">
-      <c r="B4" s="35"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1458,29 +1458,29 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="19" thickTop="1">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>3035355</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="2">
         <v>4159773</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="17"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3">
         <v>3027162</v>
       </c>
@@ -1490,12 +1490,12 @@
       <c r="E6" s="3">
         <v>4153955</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="17"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3">
         <v>3008204</v>
       </c>
@@ -1505,139 +1505,139 @@
       <c r="E7" s="3">
         <v>4153957</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="17"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="3">
         <v>4153953</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="17"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="3">
         <v>4153954</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="17"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="3">
         <v>4159774</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="17"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="3">
         <v>4159854</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="17"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="3">
         <v>4219220</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="17"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="3">
         <v>4139810</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="17"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="3">
         <v>763957</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="17"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="3">
         <v>763964</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="17"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="3">
         <v>4236881</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="19" thickBot="1">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22">
+      <c r="B17" s="34"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="13">
         <v>4055817</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="9">
         <v>40761551</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="9">
         <v>9192</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="17"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="3">
         <v>3018834</v>
       </c>
@@ -1647,12 +1647,12 @@
       <c r="E19" s="3">
         <v>4123508</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="17"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="3">
         <v>3009261</v>
       </c>
@@ -1662,12 +1662,12 @@
       <c r="E20" s="3">
         <v>4126673</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="17"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="3">
         <v>3024629</v>
       </c>
@@ -1677,12 +1677,12 @@
       <c r="E21" s="3">
         <v>4125547</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="17"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="3">
         <v>3011397</v>
       </c>
@@ -1692,12 +1692,12 @@
       <c r="E22" s="3">
         <v>4126674</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="17"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="3">
         <v>3035350</v>
       </c>
@@ -1707,95 +1707,95 @@
       <c r="E23" s="3">
         <v>9189</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="17"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="3">
         <v>3000348</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="26"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="17"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="3">
         <v>3021601</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="27"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="17"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="3">
         <v>3014051</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="27"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="17"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="3">
         <v>3011397</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="17"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="3">
         <v>3037426</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="27"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" ht="19" thickBot="1">
-      <c r="B29" s="19"/>
-      <c r="C29" s="22">
+      <c r="B29" s="34"/>
+      <c r="C29" s="13">
         <v>40765224</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="29"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="9">
         <v>3017143</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="9">
         <v>9191</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="17"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="3">
         <v>3002302</v>
       </c>
@@ -1805,12 +1805,12 @@
       <c r="E31" s="3">
         <v>9189</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="17"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="3">
         <v>3013801</v>
       </c>
@@ -1820,1118 +1820,1124 @@
       <c r="E32" s="3">
         <v>4127785</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="17"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="3">
         <v>43055007</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="26"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="17"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="3">
         <v>3017979</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="27"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="17"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="3">
         <v>3029434</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="27"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="17"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="3">
         <v>3041870</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="27"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="17"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="3">
         <v>36306041</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="27"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="17"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="3">
         <v>3008075</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="27"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="17"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="3">
         <v>3021125</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="27"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="17"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="3">
         <v>3017797</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="27"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="17"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="3">
         <v>3006453</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="27"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="17"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="3">
         <v>3038841</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="27"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="17"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="3">
         <v>46234930</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="27"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="17"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="3">
         <v>3031341</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="27"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="17"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="3">
         <v>3019284</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="27"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="17"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="3">
         <v>3004563</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="27"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="17"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="3">
         <v>40768325</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="27"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="17"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="3">
         <v>3019510</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="27"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="17"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="3">
         <v>3025267</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="27"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="17"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="3">
         <v>46234931</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="27"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="17"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="3">
         <v>42868628</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="27"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="17"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="3">
         <v>3049865</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="27"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="17"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="3">
         <v>3052372</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="27"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="17"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="3">
         <v>3001000</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="27"/>
+      <c r="D54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="17"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="3">
         <v>3032606</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="27"/>
+      <c r="D55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="17"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="3">
         <v>3032617</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="27"/>
+      <c r="D56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="17"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="3">
         <v>3013906</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="27"/>
+      <c r="D57" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="17"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="3">
         <v>3018154</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="27"/>
+      <c r="D58" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="17"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="3">
         <v>3017675</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="27"/>
+      <c r="D59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="17"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="3">
         <v>3038100</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="27"/>
+      <c r="D60" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="17"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="3">
         <v>36203852</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="27"/>
+      <c r="D61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="17"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="3">
         <v>36203506</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="27"/>
+      <c r="D62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="17"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="3">
         <v>40771495</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="27"/>
+      <c r="D63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="17"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="3">
         <v>3007921</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="27"/>
+      <c r="D64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="17"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="3">
         <v>3033479</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="27"/>
+      <c r="D65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="17"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="3">
         <v>3003974</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="27"/>
+      <c r="D66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="17"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="3">
         <v>3039289</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="27"/>
+      <c r="D67" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="17"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="3">
         <v>3025907</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="27"/>
+      <c r="D68" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="17"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="3">
         <v>3000685</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="27"/>
+      <c r="D69" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="17"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="3">
         <v>3016650</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="27"/>
+      <c r="D70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="17"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="3">
         <v>3035456</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="27"/>
+      <c r="D71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="22"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="17"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="3">
         <v>3006631</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="27"/>
+      <c r="D72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="22"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="17"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="3">
         <v>3040363</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="27"/>
+      <c r="D73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="21"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="17"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="3">
         <v>3039319</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="27"/>
+      <c r="D74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="22"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="17"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="3">
         <v>3013327</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="27"/>
+      <c r="D75" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="22"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="17"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="3">
         <v>3020316</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="27"/>
+      <c r="D76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="21"/>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="17"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="3">
         <v>3039218</v>
       </c>
-      <c r="D77" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="27"/>
+      <c r="D77" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="22"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="17"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="3">
         <v>3006735</v>
       </c>
-      <c r="D78" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="27"/>
+      <c r="D78" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="22"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="17"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="3">
         <v>3011945</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="27"/>
+      <c r="D79" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="21"/>
+      <c r="F79" s="22"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="17"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="3">
         <v>3013058</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="27"/>
+      <c r="D80" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E80" s="21"/>
+      <c r="F80" s="22"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="17"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="3">
         <v>3022474</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="27"/>
+      <c r="D81" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="21"/>
+      <c r="F81" s="22"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="17"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="3">
         <v>3023871</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="27"/>
+      <c r="D82" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="21"/>
+      <c r="F82" s="22"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="17"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="3">
         <v>3026193</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="27"/>
+      <c r="D83" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="F83" s="22"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="17"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="3">
         <v>3038177</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="27"/>
+      <c r="D84" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="21"/>
+      <c r="F84" s="22"/>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="17"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="3">
         <v>3051620</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="27"/>
+      <c r="D85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="21"/>
+      <c r="F85" s="22"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="17"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="3">
         <v>40763578</v>
       </c>
-      <c r="D86" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="27"/>
+      <c r="D86" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" s="21"/>
+      <c r="F86" s="22"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="17"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="3">
         <v>3010521</v>
       </c>
-      <c r="D87" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="27"/>
+      <c r="D87" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E87" s="21"/>
+      <c r="F87" s="22"/>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="17"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="3">
         <v>3013437</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="27"/>
+      <c r="D88" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="21"/>
+      <c r="F88" s="22"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="17"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="3">
         <v>3016357</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="27"/>
+      <c r="D89" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="21"/>
+      <c r="F89" s="22"/>
     </row>
     <row r="90" spans="2:6">
-      <c r="B90" s="17"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="3">
         <v>3021082</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="27"/>
+      <c r="D90" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="21"/>
+      <c r="F90" s="22"/>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="17"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="3">
         <v>3027545</v>
       </c>
-      <c r="D91" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="27"/>
+      <c r="D91" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="21"/>
+      <c r="F91" s="22"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="17"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="3">
         <v>3035420</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="27"/>
+      <c r="D92" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="21"/>
+      <c r="F92" s="22"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="17"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="3">
         <v>3044569</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="27"/>
+      <c r="D93" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="21"/>
+      <c r="F93" s="22"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="17"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="3">
         <v>3045068</v>
       </c>
-      <c r="D94" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="27"/>
+      <c r="D94" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="21"/>
+      <c r="F94" s="22"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="17"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="3">
         <v>3046684</v>
       </c>
-      <c r="D95" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="27"/>
+      <c r="D95" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" s="21"/>
+      <c r="F95" s="22"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="17"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="3">
         <v>40760788</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="27"/>
+      <c r="D96" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" s="21"/>
+      <c r="F96" s="22"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="17"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="3">
         <v>40760789</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" s="21"/>
+      <c r="F97" s="22"/>
+    </row>
+    <row r="98" spans="2:6" ht="19" thickBot="1">
+      <c r="B98" s="34"/>
+      <c r="C98" s="13">
+        <v>40761802</v>
+      </c>
+      <c r="D98" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="27"/>
-    </row>
-    <row r="98" spans="2:6" ht="19" thickBot="1">
-      <c r="B98" s="19"/>
-      <c r="C98" s="22">
-        <v>40761802</v>
-      </c>
-      <c r="D98" s="28" t="s">
+      <c r="E98" s="23"/>
+      <c r="F98" s="24"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="9">
+        <v>3002529</v>
+      </c>
+      <c r="D99" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E98" s="20"/>
-      <c r="F98" s="29"/>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" s="14">
-        <v>3002529</v>
-      </c>
-      <c r="D99" s="30" t="s">
+      <c r="E99" s="9">
+        <v>4013995</v>
+      </c>
+      <c r="F99" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E99" s="14">
-        <v>4013995</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="17"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="3">
         <v>3003238</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>121</v>
+      <c r="D100" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="E100" s="3">
         <v>4013540</v>
       </c>
-      <c r="F100" s="18" t="s">
-        <v>122</v>
+      <c r="F100" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="17"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="3">
         <v>3003310</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>123</v>
+      <c r="D101" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="E101" s="3">
         <v>4230942</v>
       </c>
-      <c r="F101" s="18" t="s">
-        <v>124</v>
+      <c r="F101" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="2:6">
-      <c r="B102" s="17"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="8"/>
+      <c r="B102" s="33"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="3">
         <v>4008253</v>
       </c>
-      <c r="F102" s="18" t="s">
-        <v>125</v>
+      <c r="F102" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="17"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="10"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="3">
         <v>4009006</v>
       </c>
-      <c r="F103" s="18" t="s">
-        <v>126</v>
+      <c r="F103" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="17"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="10"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="3">
         <v>4237761</v>
       </c>
-      <c r="F104" s="18" t="s">
+      <c r="F104" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="19" thickBot="1">
+      <c r="B105" s="34"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="13">
+        <v>4013993</v>
+      </c>
+      <c r="F105" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="19" thickBot="1">
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="22">
-        <v>4013993</v>
-      </c>
-      <c r="F105" s="23" t="s">
+    <row r="106" spans="2:6" ht="18" customHeight="1">
+      <c r="B106" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106" s="9">
+        <v>3021461</v>
+      </c>
+      <c r="D106" s="17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="106" spans="2:6" ht="18" customHeight="1">
-      <c r="B106" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C106" s="14">
-        <v>3021461</v>
-      </c>
-      <c r="D106" s="30" t="s">
+      <c r="E106" s="9">
+        <v>4305306</v>
+      </c>
+      <c r="F106" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E106" s="14">
-        <v>4305306</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="17"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="3">
         <v>3049684</v>
       </c>
-      <c r="D107" s="11" t="s">
-        <v>131</v>
+      <c r="D107" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="E107" s="3">
         <v>4024508</v>
       </c>
-      <c r="F107" s="18" t="s">
-        <v>132</v>
+      <c r="F107" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="2:6">
-      <c r="B108" s="17"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="3">
         <v>3002446</v>
       </c>
-      <c r="D108" s="11" t="s">
-        <v>133</v>
+      <c r="D108" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="E108" s="3">
         <v>4011063</v>
       </c>
-      <c r="F108" s="18" t="s">
-        <v>134</v>
+      <c r="F108" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="17"/>
+      <c r="B109" s="33"/>
       <c r="C109" s="3">
         <v>3012982</v>
       </c>
-      <c r="D109" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="26"/>
+      <c r="D109" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="19"/>
+      <c r="F109" s="20"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="17"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="3">
         <v>3019428</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="27"/>
+      <c r="D110" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="21"/>
+      <c r="F110" s="22"/>
     </row>
     <row r="111" spans="2:6">
-      <c r="B111" s="17"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="3">
         <v>3022122</v>
       </c>
-      <c r="D111" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="27"/>
+      <c r="D111" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" s="21"/>
+      <c r="F111" s="22"/>
     </row>
     <row r="112" spans="2:6">
-      <c r="B112" s="17"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="3">
         <v>3004772</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="27"/>
+      <c r="D112" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="21"/>
+      <c r="F112" s="22"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="17"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="3">
         <v>3019832</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="27"/>
+      <c r="D113" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E113" s="21"/>
+      <c r="F113" s="22"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="17"/>
+      <c r="B114" s="33"/>
       <c r="C114" s="3">
         <v>3004786</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="27"/>
+      <c r="D114" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="21"/>
+      <c r="F114" s="22"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="17"/>
+      <c r="B115" s="33"/>
       <c r="C115" s="3">
         <v>3028061</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="27"/>
+      <c r="D115" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E115" s="21"/>
+      <c r="F115" s="22"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="17"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="3">
         <v>3024286</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="27"/>
+      <c r="D116" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116" s="21"/>
+      <c r="F116" s="22"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="17"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="3">
         <v>3011520</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="27"/>
+      <c r="D117" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="21"/>
+      <c r="F117" s="22"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="17"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="3">
         <v>40760151</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="27"/>
+      <c r="D118" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="21"/>
+      <c r="F118" s="22"/>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="17"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="3">
         <v>3004772</v>
       </c>
-      <c r="D119" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E119" s="9"/>
-      <c r="F119" s="27"/>
+      <c r="D119" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E119" s="21"/>
+      <c r="F119" s="22"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="17"/>
+      <c r="B120" s="33"/>
       <c r="C120" s="3">
         <v>3040021</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="27"/>
+      <c r="D120" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" s="21"/>
+      <c r="F120" s="22"/>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="17"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="3">
         <v>3011981</v>
       </c>
-      <c r="D121" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E121" s="9"/>
-      <c r="F121" s="27"/>
+      <c r="D121" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="21"/>
+      <c r="F121" s="22"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="17"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="3">
         <v>3051954</v>
       </c>
-      <c r="D122" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="27"/>
+      <c r="D122" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" s="21"/>
+      <c r="F122" s="22"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="17"/>
+      <c r="B123" s="33"/>
       <c r="C123" s="3">
         <v>3040742</v>
       </c>
-      <c r="D123" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="27"/>
+      <c r="D123" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="21"/>
+      <c r="F123" s="22"/>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="17"/>
+      <c r="B124" s="33"/>
       <c r="C124" s="3">
         <v>3015923</v>
       </c>
-      <c r="D124" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="27"/>
+      <c r="D124" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" s="21"/>
+      <c r="F124" s="22"/>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="17"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="3">
         <v>3044651</v>
       </c>
-      <c r="D125" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="27"/>
+      <c r="D125" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="21"/>
+      <c r="F125" s="22"/>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="17"/>
+      <c r="B126" s="33"/>
       <c r="C126" s="3">
         <v>3048453</v>
       </c>
-      <c r="D126" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="27"/>
+      <c r="D126" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" s="21"/>
+      <c r="F126" s="22"/>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="17"/>
+      <c r="B127" s="33"/>
       <c r="C127" s="3">
         <v>3017178</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="27"/>
+      <c r="D127" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" s="21"/>
+      <c r="F127" s="22"/>
     </row>
     <row r="128" spans="2:6">
-      <c r="B128" s="17"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="3">
         <v>3050642</v>
       </c>
-      <c r="D128" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E128" s="9"/>
-      <c r="F128" s="27"/>
+      <c r="D128" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" s="21"/>
+      <c r="F128" s="22"/>
     </row>
     <row r="129" spans="2:6">
-      <c r="B129" s="17"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="3">
         <v>3042468</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" s="21"/>
+      <c r="F129" s="22"/>
+    </row>
+    <row r="130" spans="2:6" ht="19" thickBot="1">
+      <c r="B130" s="34"/>
+      <c r="C130" s="13">
+        <v>3005900</v>
+      </c>
+      <c r="D130" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E129" s="9"/>
-      <c r="F129" s="27"/>
-    </row>
-    <row r="130" spans="2:6" ht="19" thickBot="1">
-      <c r="B130" s="19"/>
-      <c r="C130" s="22">
-        <v>3005900</v>
-      </c>
-      <c r="D130" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E130" s="20"/>
-      <c r="F130" s="29"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B106:B130"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="B18:B29"/>
+    <mergeCell ref="B30:B98"/>
+    <mergeCell ref="B99:B105"/>
     <mergeCell ref="E109:F130"/>
     <mergeCell ref="E33:F98"/>
     <mergeCell ref="C3:D3"/>
@@ -2939,12 +2945,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E24:F29"/>
     <mergeCell ref="C102:D105"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B17"/>
-    <mergeCell ref="B18:B29"/>
-    <mergeCell ref="B30:B98"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="B106:B130"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
